--- a/debug/RENDER_debug.xlsx
+++ b/debug/RENDER_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE492"/>
+  <dimension ref="A1:AE499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50274,13 +50274,13 @@
         <v>2.479</v>
       </c>
       <c r="C492" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="D492" t="n">
         <v>2.424</v>
       </c>
       <c r="E492" t="n">
-        <v>2.514</v>
+        <v>2.534</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -50318,7 +50318,7 @@
         <v>2.276</v>
       </c>
       <c r="Q492" t="n">
-        <v>12.038664</v>
+        <v>13.796134</v>
       </c>
       <c r="R492" t="n">
         <v>24.4</v>
@@ -50363,6 +50363,713 @@
       </c>
       <c r="AE492" t="n">
         <v>2.424</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>2.533</v>
+      </c>
+      <c r="C493" t="n">
+        <v>2.652</v>
+      </c>
+      <c r="D493" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="E493" t="n">
+        <v>2.563</v>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="n">
+        <v>3</v>
+      </c>
+      <c r="I493" t="n">
+        <v/>
+      </c>
+      <c r="J493" t="n">
+        <v/>
+      </c>
+      <c r="K493" t="n">
+        <v/>
+      </c>
+      <c r="L493" t="n">
+        <v/>
+      </c>
+      <c r="M493" t="n">
+        <v/>
+      </c>
+      <c r="N493" t="n">
+        <v/>
+      </c>
+      <c r="O493" t="n">
+        <v>5.522</v>
+      </c>
+      <c r="P493" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>16.520211</v>
+      </c>
+      <c r="R493" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S493" t="n">
+        <v>5</v>
+      </c>
+      <c r="T493" t="n">
+        <v>3.09232</v>
+      </c>
+      <c r="U493" t="n">
+        <v>2.87144</v>
+      </c>
+      <c r="V493" t="n">
+        <v>2.54012</v>
+      </c>
+      <c r="W493" t="n">
+        <v>2.26402</v>
+      </c>
+      <c r="X493" t="n">
+        <v>1.9327</v>
+      </c>
+      <c r="Y493" t="n">
+        <v>1.54616</v>
+      </c>
+      <c r="Z493" t="n">
+        <v>1.15962</v>
+      </c>
+      <c r="AA493" t="n">
+        <v>1.04918</v>
+      </c>
+      <c r="AB493" t="n">
+        <v>2.831344</v>
+      </c>
+      <c r="AC493" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD493" t="n">
+        <v>2.54012</v>
+      </c>
+      <c r="AE493" t="n">
+        <v>2.468</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>2.563</v>
+      </c>
+      <c r="C494" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D494" t="n">
+        <v>2.436</v>
+      </c>
+      <c r="E494" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="n">
+        <v>3</v>
+      </c>
+      <c r="I494" t="n">
+        <v/>
+      </c>
+      <c r="J494" t="n">
+        <v/>
+      </c>
+      <c r="K494" t="n">
+        <v/>
+      </c>
+      <c r="L494" t="n">
+        <v/>
+      </c>
+      <c r="M494" t="n">
+        <v/>
+      </c>
+      <c r="N494" t="n">
+        <v/>
+      </c>
+      <c r="O494" t="n">
+        <v>5.522</v>
+      </c>
+      <c r="P494" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="Q494" t="n">
+        <v>18.629174</v>
+      </c>
+      <c r="R494" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S494" t="n">
+        <v>5</v>
+      </c>
+      <c r="T494" t="n">
+        <v>3.09232</v>
+      </c>
+      <c r="U494" t="n">
+        <v>2.87144</v>
+      </c>
+      <c r="V494" t="n">
+        <v>2.54012</v>
+      </c>
+      <c r="W494" t="n">
+        <v>2.26402</v>
+      </c>
+      <c r="X494" t="n">
+        <v>1.9327</v>
+      </c>
+      <c r="Y494" t="n">
+        <v>1.54616</v>
+      </c>
+      <c r="Z494" t="n">
+        <v>1.15962</v>
+      </c>
+      <c r="AA494" t="n">
+        <v>1.04918</v>
+      </c>
+      <c r="AB494" t="n">
+        <v>2.831344</v>
+      </c>
+      <c r="AC494" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD494" t="n">
+        <v>2.54012</v>
+      </c>
+      <c r="AE494" t="n">
+        <v>2.436</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C495" t="n">
+        <v>2.509</v>
+      </c>
+      <c r="D495" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="E495" t="n">
+        <v>2.384</v>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="n">
+        <v>3</v>
+      </c>
+      <c r="I495" t="n">
+        <v/>
+      </c>
+      <c r="J495" t="n">
+        <v/>
+      </c>
+      <c r="K495" t="n">
+        <v/>
+      </c>
+      <c r="L495" t="n">
+        <v/>
+      </c>
+      <c r="M495" t="n">
+        <v/>
+      </c>
+      <c r="N495" t="n">
+        <v/>
+      </c>
+      <c r="O495" t="n">
+        <v>5.522</v>
+      </c>
+      <c r="P495" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="Q495" t="n">
+        <v>10.237258</v>
+      </c>
+      <c r="R495" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S495" t="n">
+        <v>5</v>
+      </c>
+      <c r="T495" t="n">
+        <v>3.09232</v>
+      </c>
+      <c r="U495" t="n">
+        <v>2.87144</v>
+      </c>
+      <c r="V495" t="n">
+        <v>2.54012</v>
+      </c>
+      <c r="W495" t="n">
+        <v>2.26402</v>
+      </c>
+      <c r="X495" t="n">
+        <v>1.9327</v>
+      </c>
+      <c r="Y495" t="n">
+        <v>1.54616</v>
+      </c>
+      <c r="Z495" t="n">
+        <v>1.15962</v>
+      </c>
+      <c r="AA495" t="n">
+        <v>1.04918</v>
+      </c>
+      <c r="AB495" t="n">
+        <v>2.831344</v>
+      </c>
+      <c r="AC495" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD495" t="n">
+        <v>1.15962</v>
+      </c>
+      <c r="AE495" t="n">
+        <v>2.318</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>2.385</v>
+      </c>
+      <c r="C496" t="n">
+        <v>2.509</v>
+      </c>
+      <c r="D496" t="n">
+        <v>2.372</v>
+      </c>
+      <c r="E496" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="n">
+        <v>3</v>
+      </c>
+      <c r="I496" t="n">
+        <v/>
+      </c>
+      <c r="J496" t="n">
+        <v/>
+      </c>
+      <c r="K496" t="n">
+        <v/>
+      </c>
+      <c r="L496" t="n">
+        <v/>
+      </c>
+      <c r="M496" t="n">
+        <v/>
+      </c>
+      <c r="N496" t="n">
+        <v/>
+      </c>
+      <c r="O496" t="n">
+        <v>5.522</v>
+      </c>
+      <c r="P496" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>10.237258</v>
+      </c>
+      <c r="R496" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S496" t="n">
+        <v>5</v>
+      </c>
+      <c r="T496" t="n">
+        <v>3.09232</v>
+      </c>
+      <c r="U496" t="n">
+        <v>2.87144</v>
+      </c>
+      <c r="V496" t="n">
+        <v>2.54012</v>
+      </c>
+      <c r="W496" t="n">
+        <v>2.26402</v>
+      </c>
+      <c r="X496" t="n">
+        <v>1.9327</v>
+      </c>
+      <c r="Y496" t="n">
+        <v>1.54616</v>
+      </c>
+      <c r="Z496" t="n">
+        <v>1.15962</v>
+      </c>
+      <c r="AA496" t="n">
+        <v>1.04918</v>
+      </c>
+      <c r="AB496" t="n">
+        <v>2.831344</v>
+      </c>
+      <c r="AC496" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD496" t="n">
+        <v>1.15962</v>
+      </c>
+      <c r="AE496" t="n">
+        <v>2.372</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>2.461</v>
+      </c>
+      <c r="C497" t="n">
+        <v>2.537</v>
+      </c>
+      <c r="D497" t="n">
+        <v>2.398</v>
+      </c>
+      <c r="E497" t="n">
+        <v>2.465</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G497" t="b">
+        <v>1</v>
+      </c>
+      <c r="H497" t="n">
+        <v>3</v>
+      </c>
+      <c r="I497" t="n">
+        <v/>
+      </c>
+      <c r="J497" t="n">
+        <v/>
+      </c>
+      <c r="K497" t="n">
+        <v/>
+      </c>
+      <c r="L497" t="n">
+        <v/>
+      </c>
+      <c r="M497" t="n">
+        <v/>
+      </c>
+      <c r="N497" t="n">
+        <v/>
+      </c>
+      <c r="O497" t="n">
+        <v>5.522</v>
+      </c>
+      <c r="P497" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>11.467487</v>
+      </c>
+      <c r="R497" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S497" t="n">
+        <v>5</v>
+      </c>
+      <c r="T497" t="n">
+        <v>3.09232</v>
+      </c>
+      <c r="U497" t="n">
+        <v>2.87144</v>
+      </c>
+      <c r="V497" t="n">
+        <v>2.54012</v>
+      </c>
+      <c r="W497" t="n">
+        <v>2.26402</v>
+      </c>
+      <c r="X497" t="n">
+        <v>1.9327</v>
+      </c>
+      <c r="Y497" t="n">
+        <v>1.54616</v>
+      </c>
+      <c r="Z497" t="n">
+        <v>1.15962</v>
+      </c>
+      <c r="AA497" t="n">
+        <v>1.04918</v>
+      </c>
+      <c r="AB497" t="n">
+        <v>2.831344</v>
+      </c>
+      <c r="AC497" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD497" t="n">
+        <v>1.15962</v>
+      </c>
+      <c r="AE497" t="n">
+        <v>2.398</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>2.464</v>
+      </c>
+      <c r="C498" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D498" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="E498" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G498" t="b">
+        <v>1</v>
+      </c>
+      <c r="H498" t="n">
+        <v>3</v>
+      </c>
+      <c r="I498" t="n">
+        <v/>
+      </c>
+      <c r="J498" t="n">
+        <v/>
+      </c>
+      <c r="K498" t="n">
+        <v/>
+      </c>
+      <c r="L498" t="n">
+        <v/>
+      </c>
+      <c r="M498" t="n">
+        <v/>
+      </c>
+      <c r="N498" t="n">
+        <v/>
+      </c>
+      <c r="O498" t="n">
+        <v>5.522</v>
+      </c>
+      <c r="P498" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>9.841828</v>
+      </c>
+      <c r="R498" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S498" t="n">
+        <v>5</v>
+      </c>
+      <c r="T498" t="n">
+        <v>3.09232</v>
+      </c>
+      <c r="U498" t="n">
+        <v>2.87144</v>
+      </c>
+      <c r="V498" t="n">
+        <v>2.54012</v>
+      </c>
+      <c r="W498" t="n">
+        <v>2.26402</v>
+      </c>
+      <c r="X498" t="n">
+        <v>1.9327</v>
+      </c>
+      <c r="Y498" t="n">
+        <v>1.54616</v>
+      </c>
+      <c r="Z498" t="n">
+        <v>1.15962</v>
+      </c>
+      <c r="AA498" t="n">
+        <v>1.04918</v>
+      </c>
+      <c r="AB498" t="n">
+        <v>2.831344</v>
+      </c>
+      <c r="AC498" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD498" t="n">
+        <v>1.15962</v>
+      </c>
+      <c r="AE498" t="n">
+        <v>2.396</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="C499" t="n">
+        <v>2.572</v>
+      </c>
+      <c r="D499" t="n">
+        <v>2.426</v>
+      </c>
+      <c r="E499" t="n">
+        <v>2.536</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G499" t="b">
+        <v>1</v>
+      </c>
+      <c r="H499" t="n">
+        <v>3</v>
+      </c>
+      <c r="I499" t="n">
+        <v/>
+      </c>
+      <c r="J499" t="n">
+        <v/>
+      </c>
+      <c r="K499" t="n">
+        <v/>
+      </c>
+      <c r="L499" t="n">
+        <v/>
+      </c>
+      <c r="M499" t="n">
+        <v/>
+      </c>
+      <c r="N499" t="n">
+        <v/>
+      </c>
+      <c r="O499" t="n">
+        <v>5.522</v>
+      </c>
+      <c r="P499" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>13.005272</v>
+      </c>
+      <c r="R499" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S499" t="n">
+        <v>5</v>
+      </c>
+      <c r="T499" t="n">
+        <v>3.09232</v>
+      </c>
+      <c r="U499" t="n">
+        <v>2.87144</v>
+      </c>
+      <c r="V499" t="n">
+        <v>2.54012</v>
+      </c>
+      <c r="W499" t="n">
+        <v>2.26402</v>
+      </c>
+      <c r="X499" t="n">
+        <v>1.9327</v>
+      </c>
+      <c r="Y499" t="n">
+        <v>1.54616</v>
+      </c>
+      <c r="Z499" t="n">
+        <v>1.15962</v>
+      </c>
+      <c r="AA499" t="n">
+        <v>1.04918</v>
+      </c>
+      <c r="AB499" t="n">
+        <v>2.831344</v>
+      </c>
+      <c r="AC499" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD499" t="n">
+        <v>2.54012</v>
+      </c>
+      <c r="AE499" t="n">
+        <v>2.426</v>
       </c>
     </row>
   </sheetData>
